--- a/visualizations/lcoh.xlsx
+++ b/visualizations/lcoh.xlsx
@@ -520,52 +520,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>37.30451486017171</v>
+        <v>37.78057529324511</v>
       </c>
       <c r="C2" t="n">
-        <v>38.15461291102836</v>
+        <v>38.62499385646858</v>
       </c>
       <c r="D2" t="n">
-        <v>36.42655230877587</v>
+        <v>36.91707617022627</v>
       </c>
       <c r="E2" t="n">
-        <v>37.30462821137482</v>
+        <v>37.78079941709299</v>
       </c>
       <c r="F2" t="n">
-        <v>37.40363561115242</v>
+        <v>37.87856734358893</v>
       </c>
       <c r="G2" t="n">
-        <v>36.4820295718575</v>
+        <v>36.56305240538647</v>
       </c>
       <c r="H2" t="n">
-        <v>39.96220865807322</v>
+        <v>40.42240176849462</v>
       </c>
       <c r="I2" t="n">
-        <v>33.44297082814678</v>
+        <v>33.97783090374694</v>
       </c>
       <c r="J2" t="n">
-        <v>38.003589866022</v>
+        <v>38.10471481777498</v>
       </c>
       <c r="K2" t="n">
-        <v>37.36548538094239</v>
+        <v>37.84587350961603</v>
       </c>
       <c r="L2" t="n">
-        <v>37.30681207849479</v>
+        <v>37.79007229937246</v>
       </c>
       <c r="M2" t="n">
-        <v>36.49146990968705</v>
+        <v>38.15720834861781</v>
       </c>
       <c r="N2" t="n">
-        <v>19.70417191243437</v>
+        <v>22.41784312214168</v>
       </c>
       <c r="O2" t="n">
-        <v>32.69535467691731</v>
+        <v>33.37284741345823</v>
       </c>
       <c r="P2" t="n">
-        <v>40.63062227514476</v>
+        <v>41.05637316077594</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.75133243007441</v>
+        <v>34.05690116431455</v>
       </c>
     </row>
   </sheetData>

--- a/visualizations/lcoh.xlsx
+++ b/visualizations/lcoh.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -520,52 +520,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>37.30451486017171</v>
+        <v>37.84278171914715</v>
       </c>
       <c r="C2" t="n">
-        <v>38.15461291102836</v>
+        <v>38.74047329475788</v>
       </c>
       <c r="D2" t="n">
-        <v>36.42655230877587</v>
+        <v>36.93294442240584</v>
       </c>
       <c r="E2" t="n">
-        <v>37.30462821137482</v>
+        <v>37.84294501151046</v>
       </c>
       <c r="F2" t="n">
-        <v>37.40363561115242</v>
+        <v>37.94553809617636</v>
       </c>
       <c r="G2" t="n">
-        <v>36.4820295718575</v>
+        <v>37.18388087321011</v>
       </c>
       <c r="H2" t="n">
-        <v>39.96220865807322</v>
+        <v>40.66793297706615</v>
       </c>
       <c r="I2" t="n">
-        <v>33.44297082814678</v>
+        <v>33.84811172354475</v>
       </c>
       <c r="J2" t="n">
-        <v>38.003589866022</v>
+        <v>38.54953366014051</v>
       </c>
       <c r="K2" t="n">
-        <v>37.36548538094239</v>
+        <v>37.90966494870825</v>
       </c>
       <c r="L2" t="n">
-        <v>37.30681207849479</v>
+        <v>37.84710463969298</v>
       </c>
       <c r="M2" t="n">
-        <v>36.49146990968705</v>
+        <v>37.05173872635862</v>
       </c>
       <c r="N2" t="n">
-        <v>19.70417191243437</v>
+        <v>19.84180137267095</v>
       </c>
       <c r="O2" t="n">
-        <v>32.69535467691731</v>
+        <v>33.16907792640307</v>
       </c>
       <c r="P2" t="n">
-        <v>40.63062227514476</v>
+        <v>41.39802372017177</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.75133243007441</v>
+        <v>33.213818479076</v>
       </c>
     </row>
   </sheetData>

--- a/visualizations/lcoh.xlsx
+++ b/visualizations/lcoh.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -520,52 +520,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>37.78057529324511</v>
+        <v>38.33987524840568</v>
       </c>
       <c r="C2" t="n">
-        <v>38.62499385646858</v>
+        <v>39.22271935221791</v>
       </c>
       <c r="D2" t="n">
-        <v>36.91707617022627</v>
+        <v>37.43837867784747</v>
       </c>
       <c r="E2" t="n">
-        <v>37.78079941709299</v>
+        <v>38.34010229605165</v>
       </c>
       <c r="F2" t="n">
-        <v>37.87856734358893</v>
+        <v>38.44202087206734</v>
       </c>
       <c r="G2" t="n">
-        <v>36.56305240538647</v>
+        <v>37.27085455945915</v>
       </c>
       <c r="H2" t="n">
-        <v>40.42240176849462</v>
+        <v>41.12918685901104</v>
       </c>
       <c r="I2" t="n">
-        <v>33.97783090374694</v>
+        <v>34.4046478788235</v>
       </c>
       <c r="J2" t="n">
-        <v>38.10471481777498</v>
+        <v>38.66587587865975</v>
       </c>
       <c r="K2" t="n">
-        <v>37.84587350961603</v>
+        <v>38.41084676549933</v>
       </c>
       <c r="L2" t="n">
-        <v>37.79007229937246</v>
+        <v>38.348474045005</v>
       </c>
       <c r="M2" t="n">
-        <v>38.15720834861781</v>
+        <v>38.74644130675284</v>
       </c>
       <c r="N2" t="n">
-        <v>22.41784312214168</v>
+        <v>22.52128341190802</v>
       </c>
       <c r="O2" t="n">
-        <v>33.37284741345823</v>
+        <v>33.85002466909647</v>
       </c>
       <c r="P2" t="n">
-        <v>41.05637316077594</v>
+        <v>41.79484410913059</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.05690116431455</v>
+        <v>34.45218478079896</v>
       </c>
     </row>
   </sheetData>

--- a/visualizations/lcoh.xlsx
+++ b/visualizations/lcoh.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -520,22 +520,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>37.84278171914715</v>
+        <v>37.84278171914716</v>
       </c>
       <c r="C2" t="n">
-        <v>38.74047329475788</v>
+        <v>38.74047329475789</v>
       </c>
       <c r="D2" t="n">
-        <v>36.93294442240584</v>
+        <v>36.93294442240585</v>
       </c>
       <c r="E2" t="n">
-        <v>37.84294501151046</v>
+        <v>37.84294501151045</v>
       </c>
       <c r="F2" t="n">
-        <v>37.94553809617636</v>
+        <v>37.94553809617637</v>
       </c>
       <c r="G2" t="n">
-        <v>37.18388087321011</v>
+        <v>37.18388087321012</v>
       </c>
       <c r="H2" t="n">
         <v>40.66793297706615</v>
@@ -544,25 +544,25 @@
         <v>33.84811172354475</v>
       </c>
       <c r="J2" t="n">
-        <v>38.54953366014051</v>
+        <v>38.5495336601405</v>
       </c>
       <c r="K2" t="n">
-        <v>37.90966494870825</v>
+        <v>37.90966494870826</v>
       </c>
       <c r="L2" t="n">
-        <v>37.84710463969298</v>
+        <v>37.84710463969296</v>
       </c>
       <c r="M2" t="n">
-        <v>37.05173872635862</v>
+        <v>37.05173872635863</v>
       </c>
       <c r="N2" t="n">
-        <v>19.84180137267095</v>
+        <v>19.8418013726711</v>
       </c>
       <c r="O2" t="n">
-        <v>33.16907792640307</v>
+        <v>32.53665438233396</v>
       </c>
       <c r="P2" t="n">
-        <v>41.39802372017177</v>
+        <v>41.39802372017179</v>
       </c>
       <c r="Q2" t="n">
         <v>33.213818479076</v>

--- a/visualizations/lcoh.xlsx
+++ b/visualizations/lcoh.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -520,52 +520,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>38.33987524840568</v>
+        <v>38.33616867592303</v>
       </c>
       <c r="C2" t="n">
-        <v>39.22271935221791</v>
+        <v>39.21957026720131</v>
       </c>
       <c r="D2" t="n">
-        <v>37.43837867784747</v>
+        <v>37.43422246491471</v>
       </c>
       <c r="E2" t="n">
-        <v>38.34010229605165</v>
+        <v>38.33639247302619</v>
       </c>
       <c r="F2" t="n">
-        <v>38.44202087206734</v>
+        <v>38.43839386270652</v>
       </c>
       <c r="G2" t="n">
-        <v>37.27085455945915</v>
+        <v>37.27264036699204</v>
       </c>
       <c r="H2" t="n">
-        <v>41.12918685901104</v>
+        <v>41.12730086545788</v>
       </c>
       <c r="I2" t="n">
-        <v>34.4046478788235</v>
+        <v>34.39831753278506</v>
       </c>
       <c r="J2" t="n">
-        <v>38.66587587865975</v>
+        <v>38.66509065782072</v>
       </c>
       <c r="K2" t="n">
-        <v>38.41084676549933</v>
+        <v>38.40711072736391</v>
       </c>
       <c r="L2" t="n">
-        <v>38.348474045005</v>
+        <v>38.34476881544526</v>
       </c>
       <c r="M2" t="n">
-        <v>38.74644130675284</v>
+        <v>38.73403025197613</v>
       </c>
       <c r="N2" t="n">
-        <v>22.52128341190802</v>
+        <v>22.50914079036245</v>
       </c>
       <c r="O2" t="n">
-        <v>33.85002466909647</v>
+        <v>33.24117150663726</v>
       </c>
       <c r="P2" t="n">
-        <v>41.79484410913059</v>
+        <v>41.79315177692165</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.45218478079896</v>
+        <v>34.44852705820396</v>
       </c>
     </row>
   </sheetData>
